--- a/data/Ethanol_Run6.xlsx
+++ b/data/Ethanol_Run6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alsglobal-my.sharepoint.com/personal/lee_kennedy_alsglobal_com/Documents/Documents/GitHub/Curve_Optimising/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Study Old/Documents/GitHub/Curve_Optimising/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{0DE6E553-11EE-4774-953D-6168743B20C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D65C816F-BF49-4E95-B5FD-7515F53207B7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C1097A-4886-2E46-8F83-82C4A7808D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="315" windowWidth="18705" windowHeight="10020" xr2:uid="{9C7C1EB0-081C-497F-8D88-9633EABB6608}"/>
+    <workbookView xWindow="560" yWindow="500" windowWidth="18700" windowHeight="10020" xr2:uid="{9C7C1EB0-081C-497F-8D88-9633EABB6608}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Standard</t>
   </si>
   <si>
-    <t>Ratio</t>
-  </si>
-  <si>
     <t>Force_Zero</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Percent</t>
   </si>
 </sst>
 </file>
@@ -453,29 +453,29 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.05</v>
       </c>
@@ -483,16 +483,16 @@
         <v>4.7585002982560798E-2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -500,7 +500,7 @@
         <v>9.1019961062402163E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -508,7 +508,7 @@
         <v>0.47279007851048654</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -516,7 +516,7 @@
         <v>0.92909866525488438</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -524,7 +524,7 @@
         <v>2.8671053558706321</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -532,7 +532,7 @@
         <v>4.7070498343740947</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -540,7 +540,7 @@
         <v>6.728167531795723</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10</v>
       </c>
